--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="8" activeTab="8"/>
+    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -16,13 +16,21 @@
     <sheet name="客源管理-求购-总面积排序" sheetId="8" r:id="rId7"/>
     <sheet name="客源管理-求购-总价格排序" sheetId="9" r:id="rId8"/>
     <sheet name="客源管理-求购-创建跟进日志" sheetId="10" r:id="rId9"/>
+    <sheet name="客源管理-求购-创建封盘跟进" sheetId="11" r:id="rId10"/>
+    <sheet name="客源管理-求购-创建暂缓跟进" sheetId="12" r:id="rId11"/>
+    <sheet name="客源管理-求购-新增合同" sheetId="13" r:id="rId12"/>
+    <sheet name="获取未领用的合同列表" sheetId="14" r:id="rId13"/>
+    <sheet name="客源管理-求租-创建跟进日志" sheetId="15" r:id="rId14"/>
+    <sheet name="客源管理-求租-创建封盘跟进" sheetId="16" r:id="rId15"/>
+    <sheet name="客源管理-求租-创建暂缓跟进" sheetId="17" r:id="rId16"/>
+    <sheet name="客源管理-求租-新增合同" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="292">
   <si>
     <t>id</t>
   </si>
@@ -182,7 +190,7 @@
     <t>http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer</t>
   </si>
   <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何大","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
@@ -192,7 +200,7 @@
     <t>最小面积（70）大于最大面积（60），登记客源求租房源失败</t>
   </si>
   <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"70","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何大","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"70","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
@@ -202,7 +210,7 @@
     <t>houseUseage参数为2是，客源求租登记别墅成功</t>
   </si>
   <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"2","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何大","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"2","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
@@ -212,7 +220,7 @@
     <t>houseUseage参数为3是，客源求租登记商铺成功</t>
   </si>
   <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"3","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何大","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"3","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
@@ -402,10 +410,10 @@
     <t>{"housePriceHigh":9999.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
-    <t>CustomerManage_CreateTrackInfo_qudian_test_001</t>
-  </si>
-  <si>
-    <t>正确传入参数，创建去电跟进日志成功</t>
+    <t>CustomerManage_CreateBuyTrackInfo_qudian_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购去电跟进日志成功</t>
   </si>
   <si>
     <t>1.存在求购客源id
@@ -418,26 +426,557 @@
     <t>{"caseId":"7873521","caseType":"3","trackContent":"打电话先了解情况","trackType":"11"}</t>
   </si>
   <si>
-    <t>CustomerManage_CreateTrackInfo_miantan_test_002</t>
-  </si>
-  <si>
-    <t>正确传入参数，创建面谈跟进日志成功</t>
-  </si>
-  <si>
-    <t>{"caseId":"7873521","caseType":"3","trackContent":"客户已锁房源","trackType":"11"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_CreateTrackInfo_huifang_test_003</t>
-  </si>
-  <si>
-    <t>正确传入参数，创建店长回访跟进日志成功</t>
-  </si>
-  <si>
-    <t>1.存在求购客源id以及存在约看的房源
+    <t>CustomerManage_CreateBuyTrackInfo_miantan_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购面谈跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873521","caseType":"3","trackContent":"客户已锁房源","trackType":"2"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_huifang_test_003</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购店长回访跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873521","caseType":"3","trackContent":"客户已买房了","trackType":"69"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_jiami_test_004</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购加密跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"客户已交诚意金","trackType":"17"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_quxiao_jiami_test_005</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购取消加密跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求购客源id
+2.clientkey值有效
+3.存在已加密的客源</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"可以不需要加密了，取消加密","trackType":"73"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_tuijian_test_006</t>
+  </si>
+  <si>
+    <t>正确传入参数以及对应的标签，创建求购推荐跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"客户看房频繁，购房意向强烈","trackTag":"130|129|131|132","trackType":"18"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_quxiao_tuijian_test_007</t>
+  </si>
+  <si>
+    <t>正确传入参数以及对应的标签，创建求购取消推荐跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求购客源id
+2.clientkey值有效
+3.存在已推荐的客源</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"暂时不需要推荐了","trackType":"74"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_neichengjiao_test_008</t>
+  </si>
+  <si>
+    <t>正确传入参数，收取10000元的佣金，创建求购内成交并且不生成合同跟进日志成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.存在求购客源id
+2.clientkey值有效
+</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","commissionPrice":"10000","trackContent":"该客源已内成交","trackType":"28"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_neichengjiao_to_youxiao_test_009</t>
+  </si>
+  <si>
+    <t>正确传入参数，求购中将内成交转有效跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求购客源id
+2.clientkey值有效
+3.存在内成交客源</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"由于客户原因，暂时没有成交","trackType":"21"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_waicehngjiao_test_010</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购外成交跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"该客源已外成交了","trackType":"29"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_waicehngjiao_to_youxiao_test_011</t>
+  </si>
+  <si>
+    <t>正确传入参数，求购中将外成交转有效跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求购客源id
+2.clientkey值有效
+3.存在外成交的客源</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"重新将外成交转为有效","trackType":"21"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_fengpan_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购封盘跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","targetTime":"2020-05-17","trackContent":"客户暂无购房资格","trackType":"26"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_quxiao_fengpan_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购取消封盘跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求购客源id
+2.clientkey值有效
+3.存在已封盘的楼盘</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"客户有意向看房了","trackType":"71"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_zanhuan_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购暂缓跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","targetTime":"2020-10-24","trackContent":"客户近期无购房意向","trackType":"27"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_zanhuan_to_youxiao_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购暂缓转有效跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求购客源id
+2.clientkey值有效
+3.存在暂缓的客源</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"3","trackContent":"需要转化为有效的客源","trackType":"72"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数同时成交楼盘为外部合作的楼盘时，新增求购合同成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.clientkey值有效
+2.存在求购的客源id
+</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数同时成交楼盘为内部合作的楼盘时，新增求购合同成功</t>
+  </si>
+  <si>
+    <t>1.clientkey值有效
+2.存在求购的客源id
+3.存在出售的房源</t>
+  </si>
+  <si>
+    <t>{"area":"50","buildId":"2051071","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000214","custId":"3027838","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027838","dealHouseId":"7879262","dealSellStyle":"0","dealType":"101","haveLandcard":"0","houseDeptname":"研发中心内测店","housePlate":"2","housePlateType":"2","houseUseage":"1","houseUserId":"20174961","houseUserUid":"20174961","houseUsername":"张小林","houseaddress":"碧桂园8栋8单元8楼8号50㎡精装","landcardNo":"","mangementTax":"1","otherDataAttachment":"","ownerDataAttachment":"","ownerNo":"","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","realTotalprice":"50","salePriceUnit":"0","sellAddress":"无","sellCallPhone":"18380166926","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"何","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1","trackContent":"21213213","useage":"1"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_003</t>
+  </si>
+  <si>
+    <t>求购合同中房屋的面积为空，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":401,"errMsg":"房屋面积不能为空"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_004</t>
+  </si>
+  <si>
+    <t>求购合同中楼盘名称为空，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":401,"errMsg":"楼盘名不能为空"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_005</t>
+  </si>
+  <si>
+    <t>求购合同中成交金额为负数（-1000000），新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"-1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":401,"errMsg":"成交金额不能为负数"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_006</t>
+  </si>
+  <si>
+    <t>求购合同中成交金额为空，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":401,"errMsg":"成交金额不能为空"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_007</t>
+  </si>
+  <si>
+    <t>求购合同中成交金额为字母，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"abcdef","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":401,"errMsg":"成交金额必须为数字"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContrack_test_008</t>
+  </si>
+  <si>
+    <t>求购合同中业主应付佣金为空，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":401,"errMsg":"佣金不能为空"}</t>
+  </si>
+  <si>
+    <t>MatchNotAllocatedDealCode_sale_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数，获取出售中未领用的合同列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList</t>
+  </si>
+  <si>
+    <t>{"dealType":"101"}</t>
+  </si>
+  <si>
+    <t>MatchNotAllocatedDealCode_rent_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，获取求租中未领用的合同列表</t>
+  </si>
+  <si>
+    <t>{"dealType":"102"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_qudian_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租去电跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
+2.clientkey值有效
+3.系统参数里面无审核流程</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873521","caseType":"4","trackContent":"打电话先了解情况","trackType":"11"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_miantan_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租面谈跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873521","caseType":"4","trackContent":"客户已锁房源","trackType":"2"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_huifang_test_003</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租店长回访跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873521","caseType":"4","trackContent":"客户已买房了","trackType":"69"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_jiami_test_004</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租加密跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"客户已交诚意金","trackType":"17"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_quxiao_jiami_test_005</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租取消加密跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
+2.clientkey值有效
+3.存在已加密的客源
+4.系统参数里面无审核流程</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"可以不需要加密了，取消加密","trackType":"73"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_tuijian_test_006</t>
+  </si>
+  <si>
+    <t>正确传入参数以及对应的标签，创建求租推荐跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"客户看房频繁，租房意向强烈","trackTag":"130|129|131|132","trackType":"18"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_quxiao_tuijian_test_007</t>
+  </si>
+  <si>
+    <t>正确传入参数以及对应的标签，创建求租取消推荐跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
+2.clientkey值有效
+3.存在已推荐的客源
+4.系统参数里面无审核流程</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"暂时不需要推荐了","trackType":"74"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_neichengjiao_test_008</t>
+  </si>
+  <si>
+    <t>正确传入参数，收取10000元的佣金，创建求租内成交并且不生成合同跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","commissionPrice":"10000","trackContent":"该客源已内成交","trackType":"28"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_neichengjiao_to_youxiao_test_009</t>
+  </si>
+  <si>
+    <t>正确传入参数，求租中将内成交转有效跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
+2.clientkey值有效
+3.存在内成交客源
+4.系统参数里面无审核流程</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"由于客户原因，暂时没有成交","trackType":"21"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_waicehngjiao_test_010</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租外成交跟进日志成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"该客源已外成交了","trackType":"29"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_waicehngjiao_to_youxiao_test_011</t>
+  </si>
+  <si>
+    <t>正确传入参数，求租中外成交转有效跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
+2.clientkey值有效
+3.存在外成交的客源
+4.系统参数里面无审核流程</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"重新将外成交转为有效","trackType":"21"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_fengpan_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租封盘跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
 2.clientkey值有效</t>
   </si>
   <si>
-    <t>{"caseId":"7873521","caseType":"3","trackContent":"客户已买房了","trackType":"11"}</t>
+    <t>{"caseId":"3027663","caseType":"4","targetTime":"2020-05-17","trackContent":"客户暂无购房资格","trackType":"26"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_quxiao_fengpan_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租取消封盘跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
+2.clientkey值有效
+3.存在已封盘的楼盘</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"客户有意向看房了","trackType":"71"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_zanhuan_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租暂缓跟进日志成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.存在求租客源id
+2.clientkey值有效
+</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","targetTime":"2020-10-24","trackContent":"客户近期无购房意向","trackType":"27"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateRentTrackInfo_zanhuan_to_youxiao_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求租暂缓转有效跟进日志成功</t>
+  </si>
+  <si>
+    <t>1.存在求租客源id
+2.clientkey值有效
+3.存在暂缓的客源</t>
+  </si>
+  <si>
+    <t>{"caseId":"3027663","caseType":"4","trackContent":"需要转化为有效的客源","trackType":"72"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_001</t>
+  </si>
+  <si>
+    <t>正确传入参数同时成交楼盘为外部合作的楼盘时，新增求租合同成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.clientkey值有效
+2.存在求租的客源id
+</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"500","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"1000","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数同时成交楼盘为内部合作的楼盘时，新增求租合同成功</t>
+  </si>
+  <si>
+    <t>1.clientkey值有效
+2.存在求租的客源id
+3.存在出租的房源</t>
+  </si>
+  <si>
+    <t>{"area":"60","buildId":"2051071","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"500","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000247","custDeptId":"904205","custDeptname":"研发中心内测店","custId":"2497133","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497133","dealHouseId":"4544696","dealId":"","dealSellStyle":"0","dealType":"102","houseDeptId":"904205","houseDeptname":"研发中心内测店","houseId":"4544696","housePlate":"2","housePlateType":"2","houseUseage":"1","houseUserId":"20174961","houseUserUid":"20174961","houseUsername":"张小林","houseaddress":"碧桂园3栋2单元12楼1203号60㎡精装","realTotalprice":"1000","rentDate":"2020-04-28","rentDealMoney":"1000","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"18380166926","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"何","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","useage":"1"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_003</t>
+  </si>
+  <si>
+    <t>求租合同中房屋的面积为空，新增求租合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"500","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"1000","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_004</t>
+  </si>
+  <si>
+    <t>求租合同中楼盘名称为空，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"500","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"1000","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_005</t>
+  </si>
+  <si>
+    <t>求租合同中成交租金为负数（-1000），新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"500","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"-1000","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_006</t>
+  </si>
+  <si>
+    <t>求租合同中成交金额为空，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"500","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_007</t>
+  </si>
+  <si>
+    <t>求租合同中成交金额为字母，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"500","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"abcdef","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_rentContrack_test_008</t>
+  </si>
+  <si>
+    <t>求租合同中业主应付佣金为空，新增合同失败</t>
+  </si>
+  <si>
+    <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"1000","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
   </si>
 </sst>
 </file>
@@ -445,15 +984,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -467,24 +1019,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -492,21 +1029,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -521,30 +1043,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,9 +1066,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -582,15 +1095,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,7 +1157,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +1319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,163 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,30 +1348,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -834,21 +1362,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,8 +1384,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,6 +1395,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +1424,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -904,181 +1456,202 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1407,10 +1980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1476,16 +2049,16 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -1505,16 +2078,16 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -1534,16 +2107,16 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -1559,51 +2132,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="107" customHeight="1" spans="3:8">
-      <c r="C5" s="11"/>
-      <c r="E5" s="6"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="11"/>
-      <c r="E7" s="6"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" ht="103" customHeight="1" spans="3:8">
-      <c r="C8" s="11"/>
-      <c r="E8" s="6"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="11"/>
-      <c r="E9" s="6"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="11"/>
-      <c r="E10" s="6"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" ht="102" customHeight="1" spans="3:8">
-      <c r="C11" s="11"/>
-      <c r="E11" s="6"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="11"/>
-      <c r="E12" s="6"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" ht="108" customHeight="1" spans="3:8">
-      <c r="C13" s="11"/>
-      <c r="E13" s="6"/>
-      <c r="H13" s="11"/>
-    </row>
+    <row r="5" customHeight="1" spans="3:8">
+      <c r="C5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:8">
+      <c r="C6" s="18"/>
+      <c r="E6" s="15"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" customHeight="1" spans="3:8">
+      <c r="C7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:8">
+      <c r="C8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:8">
+      <c r="C9" s="18"/>
+      <c r="E9" s="15"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:8">
+      <c r="C10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:8">
+      <c r="C11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:8">
+      <c r="C12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:8">
+      <c r="C13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="16" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
@@ -1615,13 +2189,1699 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" s="7" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:13">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:13">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:13">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:13">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="148.5" spans="1:13">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:13">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="148.5" spans="1:13">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:13">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="135" spans="1:13">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="108" spans="1:13">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="148.5" spans="1:13">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E10" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E11" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E12" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="121.5" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" ht="121.5" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" ht="121.5" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" ht="121.5" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" ht="121.5" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" ht="121.5" spans="1:15">
+      <c r="A7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" ht="121.5" spans="1:15">
+      <c r="A8" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" ht="121.5" spans="1:15">
+      <c r="A9" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1680,19 +3940,19 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I2" t="s">
@@ -1709,25 +3969,25 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1738,19 +3998,19 @@
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I4" t="s">
@@ -1767,19 +4027,19 @@
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
@@ -1806,8 +4066,8 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1866,19 +4126,19 @@
       <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I2" t="s">
@@ -1895,25 +4155,25 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1924,19 +4184,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -1953,19 +4213,19 @@
       <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="s">
@@ -2052,19 +4312,19 @@
       <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>62</v>
       </c>
       <c r="I2" t="s">
@@ -2081,19 +4341,19 @@
       <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>65</v>
       </c>
       <c r="I3" t="s">
@@ -2103,177 +4363,177 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="12" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="12" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2358,13 +4618,13 @@
       <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>87</v>
       </c>
       <c r="G2" t="s">
@@ -2387,13 +4647,13 @@
       <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>87</v>
       </c>
       <c r="G3" t="s">
@@ -2484,13 +4744,13 @@
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>87</v>
       </c>
       <c r="G2" t="s">
@@ -2513,13 +4773,13 @@
       <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>87</v>
       </c>
       <c r="G3" t="s">
@@ -2610,13 +4870,13 @@
       <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -2639,13 +4899,13 @@
       <c r="B3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -2736,13 +4996,13 @@
       <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -2765,13 +5025,13 @@
       <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -2800,13 +5060,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -2862,19 +5122,19 @@
       <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I2" t="s">
@@ -2891,19 +5151,19 @@
       <c r="B3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>124</v>
       </c>
       <c r="I3" t="s">
@@ -2920,25 +5180,257 @@
       <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="69" customHeight="1" spans="1:13">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="69" customHeight="1" spans="1:13">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="69" customHeight="1" spans="1:13">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="69" customHeight="1" spans="1:13">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="69" customHeight="1" spans="1:13">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="69" customHeight="1" spans="1:13">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="69" customHeight="1" spans="1:13">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="69" customHeight="1" spans="1:13">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2947,6 +5439,14 @@
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E10" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E11" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E12" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="客源管理-求购-创建封盘跟进" sheetId="11" r:id="rId10"/>
     <sheet name="客源管理-求购-创建暂缓跟进" sheetId="12" r:id="rId11"/>
     <sheet name="客源管理-求购-新增合同" sheetId="13" r:id="rId12"/>
-    <sheet name="获取未领用的合同列表" sheetId="14" r:id="rId13"/>
+    <sheet name="获取出售和出租未领用的合同列表" sheetId="14" r:id="rId13"/>
     <sheet name="客源管理-求租-创建跟进日志" sheetId="15" r:id="rId14"/>
     <sheet name="客源管理-求租-创建封盘跟进" sheetId="16" r:id="rId15"/>
     <sheet name="客源管理-求租-创建暂缓跟进" sheetId="17" r:id="rId16"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="296">
   <si>
     <t>id</t>
   </si>
@@ -705,6 +705,9 @@
     <t>{"dealType":"101"}</t>
   </si>
   <si>
+    <t>{"errCode":200,"codeId":805}</t>
+  </si>
+  <si>
     <t>MatchNotAllocatedDealCode_rent_test_002</t>
   </si>
   <si>
@@ -712,6 +715,15 @@
   </si>
   <si>
     <t>{"dealType":"102"}</t>
+  </si>
+  <si>
+    <t>MatchNotAllocatedDealCode_test_003</t>
+  </si>
+  <si>
+    <t>合同类别dealType为空，获取未领用的合同列表失败</t>
+  </si>
+  <si>
+    <t>{"errCode":300,"errMsg":"dealType不能为空"}</t>
   </si>
   <si>
     <t>CustomerManage_CreateRentTrackInfo_qudian_test_001</t>
@@ -984,10 +996,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1027,21 +1039,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1050,54 +1047,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1119,9 +1070,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1135,14 +1154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1163,6 +1175,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1175,19 +1253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,49 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,19 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,67 +1343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,6 +1360,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1362,65 +1383,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,6 +1410,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1459,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1468,137 +1480,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,9 +1645,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -1982,8 +1991,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2052,13 +2061,13 @@
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -2081,13 +2090,13 @@
       <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -2110,13 +2119,13 @@
       <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -2133,49 +2142,49 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:8">
-      <c r="C5" s="18"/>
-      <c r="E5" s="15"/>
-      <c r="H5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="3:8">
-      <c r="C6" s="18"/>
-      <c r="E6" s="15"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="3:8">
-      <c r="C7" s="18"/>
-      <c r="E7" s="15"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" customHeight="1" spans="3:8">
-      <c r="C8" s="18"/>
-      <c r="E8" s="15"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" customHeight="1" spans="3:8">
-      <c r="C9" s="18"/>
-      <c r="E9" s="15"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" customHeight="1" spans="3:8">
-      <c r="C10" s="18"/>
-      <c r="E10" s="15"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" customHeight="1" spans="3:8">
-      <c r="C11" s="18"/>
-      <c r="E11" s="15"/>
-      <c r="H11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="18"/>
-      <c r="E12" s="15"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="18"/>
-      <c r="E13" s="15"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="16" customHeight="1"/>
   </sheetData>
@@ -2750,13 +2759,13 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -2818,7 +2827,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2831,15 +2840,15 @@
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
         <v>206</v>
@@ -2847,26 +2856,56 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList"/>
-    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/transaction/deal/getMatchNotAllocatedDealCodeList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2933,13 +2972,13 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2950,8 +2989,8 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>215</v>
+      <c r="H2" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2962,13 +3001,13 @@
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -2979,8 +3018,8 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>218</v>
+      <c r="H3" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -2991,13 +3030,13 @@
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -3008,8 +3047,8 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>221</v>
+      <c r="H4" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -3020,13 +3059,13 @@
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -3038,7 +3077,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -3049,13 +3088,13 @@
     </row>
     <row r="6" ht="148.5" spans="1:13">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -3067,7 +3106,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -3078,13 +3117,13 @@
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -3096,7 +3135,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -3107,13 +3146,13 @@
     </row>
     <row r="8" ht="148.5" spans="1:13">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -3125,7 +3164,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -3136,13 +3175,13 @@
     </row>
     <row r="9" ht="108" spans="1:13">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -3154,7 +3193,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -3165,13 +3204,13 @@
     </row>
     <row r="10" ht="135" spans="1:13">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -3183,7 +3222,7 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3194,13 +3233,13 @@
     </row>
     <row r="11" ht="108" spans="1:13">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -3212,7 +3251,7 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -3223,13 +3262,13 @@
     </row>
     <row r="12" ht="148.5" spans="1:13">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -3241,7 +3280,7 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -3275,7 +3314,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3329,13 +3368,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -3347,7 +3386,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -3358,13 +3397,13 @@
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -3376,7 +3415,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3455,13 +3494,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -3473,7 +3512,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -3484,13 +3523,13 @@
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -3502,7 +3541,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3527,7 +3566,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3581,13 +3620,13 @@
     </row>
     <row r="2" ht="121.5" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -3600,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -3616,13 +3655,13 @@
     </row>
     <row r="3" ht="121.5" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -3635,7 +3674,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -3651,13 +3690,13 @@
     </row>
     <row r="4" ht="121.5" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -3670,7 +3709,7 @@
         <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
@@ -3686,13 +3725,13 @@
     </row>
     <row r="5" ht="121.5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -3705,7 +3744,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>22</v>
@@ -3721,13 +3760,13 @@
     </row>
     <row r="6" ht="121.5" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -3740,7 +3779,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>22</v>
@@ -3756,13 +3795,13 @@
     </row>
     <row r="7" ht="121.5" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -3775,7 +3814,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>22</v>
@@ -3791,13 +3830,13 @@
     </row>
     <row r="8" ht="121.5" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -3810,7 +3849,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>22</v>
@@ -3826,13 +3865,13 @@
     </row>
     <row r="9" ht="121.5" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
@@ -3845,7 +3884,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
@@ -3881,7 +3920,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3987,7 +4026,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4010,7 +4049,7 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I4" t="s">
@@ -4039,7 +4078,7 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
@@ -4066,8 +4105,8 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -4173,7 +4212,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4196,7 +4235,7 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -4225,7 +4264,7 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="s">
@@ -4324,7 +4363,7 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>62</v>
       </c>
       <c r="I2" t="s">
@@ -4353,7 +4392,7 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>65</v>
       </c>
       <c r="I3" t="s">
@@ -4363,177 +4402,177 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="7" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="7" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="I8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4624,7 +4663,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>87</v>
       </c>
       <c r="G2" t="s">
@@ -4653,7 +4692,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>87</v>
       </c>
       <c r="G3" t="s">
@@ -4750,7 +4789,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G2" t="s">
@@ -4779,7 +4818,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G3" t="s">
@@ -4876,7 +4915,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -4905,7 +4944,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -5002,7 +5041,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -5031,7 +5070,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -5134,7 +5173,7 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I2" t="s">
@@ -5163,7 +5202,7 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>124</v>
       </c>
       <c r="I3" t="s">
@@ -5192,7 +5231,7 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="I4" t="s">

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="12" activeTab="12"/>
+    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
@@ -587,7 +587,7 @@
     <t>{"caseId":"3027663","caseType":"3","trackContent":"需要转化为有效的客源","trackType":"72"}</t>
   </si>
   <si>
-    <t>CustomerManage_insertContract_buyContrack_test_001</t>
+    <t>CustomerManage_insertContract_buyContract_test_001</t>
   </si>
   <si>
     <t>正确传入参数同时成交楼盘为外部合作的楼盘时，新增求购合同成功</t>
@@ -604,7 +604,7 @@
     <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
   </si>
   <si>
-    <t>CustomerManage_insertContract_buyContrack_test_002</t>
+    <t>CustomerManage_insertContract_buyContract_test_002</t>
   </si>
   <si>
     <t>正确传入参数同时成交楼盘为内部合作的楼盘时，新增求购合同成功</t>
@@ -618,7 +618,7 @@
     <t>{"area":"50","buildId":"2051071","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000214","custId":"3027838","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027838","dealHouseId":"7879262","dealSellStyle":"0","dealType":"101","haveLandcard":"0","houseDeptname":"研发中心内测店","housePlate":"2","housePlateType":"2","houseUseage":"1","houseUserId":"20174961","houseUserUid":"20174961","houseUsername":"张小林","houseaddress":"碧桂园8栋8单元8楼8号50㎡精装","landcardNo":"","mangementTax":"1","otherDataAttachment":"","ownerDataAttachment":"","ownerNo":"","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","realTotalprice":"50","salePriceUnit":"0","sellAddress":"无","sellCallPhone":"18380166926","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"何","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1","trackContent":"21213213","useage":"1"}</t>
   </si>
   <si>
-    <t>CustomerManage_insertContract_buyContrack_test_003</t>
+    <t>CustomerManage_insertContract_buyContract_test_003</t>
   </si>
   <si>
     <t>求购合同中房屋的面积为空，新增合同失败</t>
@@ -630,7 +630,7 @@
     <t>{"errCode":401,"errMsg":"房屋面积不能为空"}</t>
   </si>
   <si>
-    <t>CustomerManage_insertContract_buyContrack_test_004</t>
+    <t>CustomerManage_insertContract_buyContract_test_004</t>
   </si>
   <si>
     <t>求购合同中楼盘名称为空，新增合同失败</t>
@@ -642,7 +642,7 @@
     <t>{"errCode":401,"errMsg":"楼盘名不能为空"}</t>
   </si>
   <si>
-    <t>CustomerManage_insertContract_buyContrack_test_005</t>
+    <t>CustomerManage_insertContract_buyContract_test_005</t>
   </si>
   <si>
     <t>求购合同中成交金额为负数（-1000000），新增合同失败</t>
@@ -654,7 +654,7 @@
     <t>{"errCode":401,"errMsg":"成交金额不能为负数"}</t>
   </si>
   <si>
-    <t>CustomerManage_insertContract_buyContrack_test_006</t>
+    <t>CustomerManage_insertContract_buyContract_test_006</t>
   </si>
   <si>
     <t>求购合同中成交金额为空，新增合同失败</t>
@@ -663,10 +663,10 @@
     <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
   </si>
   <si>
-    <t>{"errCode":401,"errMsg":"成交金额不能为空"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_insertContract_buyContrack_test_007</t>
+    <t>{"errCode":500,"errMsg":"系统错误"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_insertContract_buyContract_test_007</t>
   </si>
   <si>
     <t>求购合同中成交金额为字母，新增合同失败</t>
@@ -675,19 +675,13 @@
     <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"abcdef","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
   </si>
   <si>
-    <t>{"errCode":401,"errMsg":"成交金额必须为数字"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_insertContract_buyContrack_test_008</t>
+    <t>CustomerManage_insertContract_buyContract_test_008</t>
   </si>
   <si>
     <t>求购合同中业主应付佣金为空，新增合同失败</t>
   </si>
   <si>
     <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyCustomerPhone":"手机:13678949846","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"3027663","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027663","dealSellStyle":"1","dealType":"101","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","salePriceUnit":"0","sellAddress":"碧桂园","sellCallPhone":"16546232656","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"","sellOwnerName":"李","sellOwnerPhone":"手机:15464964594","signDate":"2020-04-27","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1"}</t>
-  </si>
-  <si>
-    <t>{"errCode":401,"errMsg":"佣金不能为空"}</t>
   </si>
   <si>
     <t>MatchNotAllocatedDealCode_sale_test_001</t>
@@ -1039,32 +1033,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1077,31 +1047,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1117,15 +1065,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1146,6 +1094,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1154,7 +1118,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1169,19 +1163,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,25 +1253,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,91 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,25 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,9 +1359,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,6 +1379,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,26 +1440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1445,21 +1454,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1468,145 +1462,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2455,8 +2449,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2708,15 +2702,15 @@
         <v>22</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="1" ht="121.5" spans="1:13">
       <c r="A9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>173</v>
@@ -2731,13 +2725,13 @@
         <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2755,7 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2816,89 +2810,89 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>206</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2972,13 +2966,13 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2990,7 +2984,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3001,13 +2995,13 @@
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -3019,7 +3013,7 @@
         <v>34</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3030,13 +3024,13 @@
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -3048,7 +3042,7 @@
         <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -3059,13 +3053,13 @@
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -3077,7 +3071,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -3088,13 +3082,13 @@
     </row>
     <row r="6" ht="148.5" spans="1:13">
       <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -3106,7 +3100,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -3117,13 +3111,13 @@
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -3135,7 +3129,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -3146,13 +3140,13 @@
     </row>
     <row r="8" ht="148.5" spans="1:13">
       <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -3164,7 +3158,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -3175,13 +3169,13 @@
     </row>
     <row r="9" ht="108" spans="1:13">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -3193,7 +3187,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -3204,13 +3198,13 @@
     </row>
     <row r="10" ht="135" spans="1:13">
       <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="B10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -3222,7 +3216,7 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3233,13 +3227,13 @@
     </row>
     <row r="11" ht="108" spans="1:13">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -3251,7 +3245,7 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -3262,13 +3256,13 @@
     </row>
     <row r="12" ht="148.5" spans="1:13">
       <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="B12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -3280,7 +3274,7 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -3368,13 +3362,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -3386,7 +3380,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -3397,13 +3391,13 @@
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -3415,7 +3409,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3494,13 +3488,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -3512,7 +3506,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -3523,13 +3517,13 @@
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="B3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -3541,7 +3535,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3565,8 +3559,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3620,13 +3614,13 @@
     </row>
     <row r="2" ht="121.5" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -3639,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -3655,13 +3649,13 @@
     </row>
     <row r="3" ht="121.5" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -3674,7 +3668,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -3690,13 +3684,13 @@
     </row>
     <row r="4" ht="121.5" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -3709,7 +3703,7 @@
         <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
@@ -3725,13 +3719,13 @@
     </row>
     <row r="5" ht="121.5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -3744,7 +3738,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>22</v>
@@ -3760,13 +3754,13 @@
     </row>
     <row r="6" ht="121.5" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -3779,7 +3773,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>22</v>
@@ -3795,13 +3789,13 @@
     </row>
     <row r="7" ht="121.5" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -3814,7 +3808,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>22</v>
@@ -3830,13 +3824,13 @@
     </row>
     <row r="8" ht="121.5" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -3849,7 +3843,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>22</v>
@@ -3858,20 +3852,20 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" ht="121.5" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
@@ -3884,7 +3878,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
@@ -3893,7 +3887,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -4291,8 +4285,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="15" activeTab="16"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="296">
   <si>
     <t>id</t>
   </si>
@@ -105,13 +105,16 @@
     <t>{"code":200}</t>
   </si>
   <si>
+    <t>CustomerManage_getBuyCustomerList_test-002</t>
+  </si>
+  <si>
     <t>正确的传入参数，查询出求购信息列表</t>
   </si>
   <si>
     <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0"}</t>
   </si>
   <si>
-    <t>CustomerManage_getBuyCustomerList_test-002</t>
+    <t>CustomerManage_getBuyCustomerList_test-003</t>
   </si>
   <si>
     <t>查询求购房源列表中，来自今日抢盘的客源</t>
@@ -420,16 +423,16 @@
 2.clientkey值有效</t>
   </si>
   <si>
+    <t>{"caseId":"7873521","caseType":"3","trackContent":"打电话先了解情况","trackType":"11"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreateBuyTrackInfo_miantan_test_002</t>
+  </si>
+  <si>
+    <t>正确传入参数，创建求购面谈跟进日志成功</t>
+  </si>
+  <si>
     <t>http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo</t>
-  </si>
-  <si>
-    <t>{"caseId":"7873521","caseType":"3","trackContent":"打电话先了解情况","trackType":"11"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_CreateBuyTrackInfo_miantan_test_002</t>
-  </si>
-  <si>
-    <t>正确传入参数，创建求购面谈跟进日志成功</t>
   </si>
   <si>
     <t>{"caseId":"7873521","caseType":"3","trackContent":"客户已锁房源","trackType":"2"}</t>
@@ -715,6 +718,9 @@
   </si>
   <si>
     <t>合同类别dealType为空，获取未领用的合同列表失败</t>
+  </si>
+  <si>
+    <t>{"dealType":""}</t>
   </si>
   <si>
     <t>{"errCode":300,"errMsg":"dealType不能为空"}</t>
@@ -990,8 +996,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1041,7 +1047,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1055,9 +1083,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1065,7 +1099,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1079,53 +1113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1148,7 +1138,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1163,13 +1169,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1235,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,13 +1295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,37 +1319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,67 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,19 +1349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,13 +1363,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,6 +1397,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1395,23 +1440,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,30 +1460,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1462,10 +1468,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1474,16 +1480,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,112 +1501,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1985,8 +1991,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2079,10 +2085,10 @@
     </row>
     <row r="3" ht="136" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>17</v>
@@ -2097,7 +2103,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -2108,13 +2114,13 @@
     </row>
     <row r="4" ht="79" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -2126,7 +2132,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2252,60 +2258,60 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2378,60 +2384,60 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2449,8 +2455,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2504,234 +2510,234 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" ht="121.5" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" ht="121.5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" ht="121.5" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" ht="121.5" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" ht="121.5" spans="1:13">
       <c r="A8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="1" ht="121.5" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2755,8 +2761,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2810,89 +2816,89 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2918,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2966,321 +2972,321 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:13">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="148.5" spans="1:13">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:13">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="135" spans="1:13">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" ht="108" spans="1:13">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="148.5" spans="1:13">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3362,60 +3368,60 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3488,60 +3494,60 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3559,8 +3565,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3614,26 +3620,26 @@
     </row>
     <row r="2" ht="121.5" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -3642,33 +3648,33 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" ht="121.5" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -3677,33 +3683,33 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" ht="121.5" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
@@ -3712,33 +3718,33 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
     <row r="5" ht="121.5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>22</v>
@@ -3747,33 +3753,33 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
     <row r="6" ht="121.5" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>22</v>
@@ -3782,33 +3788,33 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" ht="121.5" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>22</v>
@@ -3817,33 +3823,33 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8" ht="121.5" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>22</v>
@@ -3852,33 +3858,33 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" ht="121.5" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
@@ -3887,7 +3893,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3914,7 +3920,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3968,118 +3974,118 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="81" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="148.5" spans="1:13">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="148.5" spans="1:13">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4100,7 +4106,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -4154,123 +4160,123 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="81" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="148.5" spans="1:13">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="148.5" spans="1:13">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer" tooltip="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
     <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
@@ -4285,8 +4291,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4340,234 +4346,234 @@
     </row>
     <row r="2" ht="148.5" spans="1:13">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="148.5" spans="1:13">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" ht="148.5" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" ht="148.5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +4598,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4646,60 +4652,60 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4772,60 +4778,60 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="135" spans="1:13">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4898,13 +4904,13 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -4916,24 +4922,24 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -4945,13 +4951,13 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5024,13 +5030,13 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -5042,24 +5048,24 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -5071,13 +5077,13 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5095,8 +5101,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5150,22 +5156,22 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>121</v>
@@ -5174,7 +5180,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
@@ -5185,291 +5191,290 @@
         <v>123</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="69" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:13">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" ht="69" customHeight="1" spans="1:13">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="69" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
@@ -5480,6 +5485,7 @@
     <hyperlink ref="E10" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E11" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E12" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
+    <hyperlink ref="E2" r:id="rId2" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="12" activeTab="12"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
     <sheet name="客源管理-求购-登记" sheetId="3" r:id="rId2"/>
     <sheet name="客源管理-求租-登记" sheetId="4" r:id="rId3"/>
-    <sheet name="客源管理-求购（求租）-登记" sheetId="5" r:id="rId4"/>
+    <sheet name="客源管理-求购排序-登记" sheetId="5" r:id="rId4"/>
     <sheet name="客源管理-求租-总面积排序" sheetId="6" r:id="rId5"/>
     <sheet name="客源管理-求租-总价格排序" sheetId="7" r:id="rId6"/>
     <sheet name="客源管理-求购-总面积排序" sheetId="8" r:id="rId7"/>
@@ -24,13 +24,14 @@
     <sheet name="客源管理-求租-创建封盘跟进" sheetId="16" r:id="rId15"/>
     <sheet name="客源管理-求租-创建暂缓跟进" sheetId="17" r:id="rId16"/>
     <sheet name="客源管理-求租-新增合同" sheetId="18" r:id="rId17"/>
+    <sheet name="客源管理-求租排序-登记" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="298">
   <si>
     <t>id</t>
   </si>
@@ -233,17 +234,17 @@
     <t>创建一个面积为0-60的求购客源的房源</t>
   </si>
   <si>
-    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"何","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"李","ownerSex":"1","ownerType":"0",
+    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"何","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"50","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"李","ownerSex":"1","ownerType":"0",
 "phone":"13678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
     <t>CustomerManage_CreatBuyCustomer_HighArea_test_002</t>
   </si>
   <si>
-    <t>创建一个总面积为900-9999的求购客源的房源</t>
-  </si>
-  <si>
-    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"李","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"9999","housePriceLow":"900","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>创建一个总面积为900-10000的求购客源的房源</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"李","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"10000","houseAreaLow":"900","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"1000","housePriceLow":"500","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678959848","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
@@ -253,58 +254,18 @@
     <t>创建一个总价格为0-80的求购客源的房源</t>
   </si>
   <si>
-    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"何","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"何","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"50","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"0","houseRoom1": "0","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678939846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
     <t>CustomerManage_CreatBuyCustomer_HighPrice_test_004</t>
   </si>
   <si>
-    <t>创建一个总价格为500-9999的求购客源的房源</t>
-  </si>
-  <si>
-    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"何","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"80","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"9999","housePriceLow":"500","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>创建一个总价格为500-10000的求购客源的房源</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园","buyCustLevel":"1","buyCustName":"何","buyCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"80","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"10000","housePriceLow":"500","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678949816","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_CreatRentCustomer_LowArea_test_005</t>
-  </si>
-  <si>
-    <t>创建一个总面积为0-60的求租客源的房源</t>
-  </si>
-  <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
-"phone":"18678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_CreatRentCustomer_HighArea_test_006</t>
-  </si>
-  <si>
-    <t>创建一个总面积为600-9999的求租客源的房源</t>
-  </si>
-  <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"600","houseAreaLow":"9999","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
-"phone":"17678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_CreatRentCustomer_LowPrice_test_007</t>
-  </si>
-  <si>
-    <t>创建一个总价格为0-1000的求租客源的房源</t>
-  </si>
-  <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"1000","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
-"phone":"13678940846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
-  </si>
-  <si>
-    <t>CustomerManage_CreatRentCustomer_HighPrice_test_008</t>
-  </si>
-  <si>
-    <t>创建一个总价格为3000-9000的求租客源的房源</t>
-  </si>
-  <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"80","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"9000","housePriceLow":"3000","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
-"phone":"13678949840","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
   <si>
     <t>CustomerManage_getRentCustomer_AreaDesc_test-001</t>
@@ -339,7 +300,7 @@
     <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_LOW ASC"}</t>
   </si>
   <si>
-    <t>{"houseAreaHigh":60.0,"buildName":"碧桂园"}</t>
+    <t>{"houseAreaHigh":60.0,"buildName":"保利中心LOFT 亚太广场"}</t>
   </si>
   <si>
     <t>CustomerManage_getRentCustomer_PriceAsc_test-001</t>
@@ -355,7 +316,7 @@
     <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW ASC"}</t>
   </si>
   <si>
-    <t>{"housePriceHigh":1000.0,"buildName":"碧桂园"}</t>
+    <t>{"housePriceHigh":1000.0,"buildName":"保利中心LOFT 亚太广场"}</t>
   </si>
   <si>
     <t>CustomerManage_getRentCustomer_PriceDesc_test-002</t>
@@ -365,13 +326,13 @@
   </si>
   <si>
     <t>1.有效的clientkey
-2.求购客源中存在总价格最大的，如总价格为3000-9000</t>
+2.求购客源中存在总价格最大的，如总价格为3000-9999</t>
   </si>
   <si>
     <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW DESC"}</t>
   </si>
   <si>
-    <t>{"housePriceHigh":9000.0,"buildName":"碧桂园"}</t>
+    <t>{"housePriceHigh":9999.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_AreaDesc_test-001</t>
@@ -381,13 +342,19 @@
   </si>
   <si>
     <t>1.有效的clientkey
-2.求购客源中存在面积最大的，如面积存在900-9999</t>
+2.求购客源中存在面积最大的，如面积存在900-10000</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":10000.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_AreaAsc_test-002</t>
   </si>
   <si>
     <t>求购客源中，总面积按照升序排序</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":60.0,"buildName":"万科金色海蓉"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_PriceAsc_test-001</t>
@@ -400,17 +367,17 @@
 2.求购客源中存在总价格最小的，如总价格为0-80</t>
   </si>
   <si>
-    <t>{"housePriceHigh":80.0,"buildName":"碧桂园"}</t>
+    <t>{"housePriceHigh":80.0,"buildName":"万科金色海蓉"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_PriceDesc_test-002</t>
   </si>
   <si>
     <t>1.有效的clientkey
-2.求购客源中存在总价格最大的，如总价格为500-9999</t>
-  </si>
-  <si>
-    <t>{"housePriceHigh":9999.0,"buildName":"碧桂园"}</t>
+2.求购客源中存在总价格最大的，如总价格为500-10000</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":10000.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
     <t>CustomerManage_CreateBuyTrackInfo_qudian_test_001</t>
@@ -989,6 +956,46 @@
   </si>
   <si>
     <t>{"area":"100","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"","buyIdCardType":"1","buyOwnerName":"何","categoryId":"14157","categoryName":"租赁合同","codeId":"805","codeType":"1","contractNo":"JC0000210","custId":"2497139","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"2497139","dealSellStyle":"1","dealType":"102","haveLandcard":"0","houseDeptname":"内测店","houseUsername":"张","rentDate":"2020-04-28","rentDealMoney":"1000","rentDepositPay":"1000","rentOverDate":"2020-05-28","rentPayEarly":"提前10天","rentPayMethod":"1","rentPriceUnit":"1","sellAddress":"无","sellCallPhone":"16546232656","sellIdCardType":"1","sellOwnerCommsion":"500","sellOwnerName":"张","sellOwnerPhone":"手机:15649848449","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreatRentCustomer_LowArea_test_001</t>
+  </si>
+  <si>
+    <t>创建一个总面积为0-60的求租客源的房源</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+"phone":"18678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreatRentCustomer_HighArea_test_002</t>
+  </si>
+  <si>
+    <t>创建一个总面积为600-9999的求租客源的房源</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"9999","houseAreaLow":"600","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"80","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+"phone":"17678949846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreatRentCustomer_LowPrice_test_003</t>
+  </si>
+  <si>
+    <t>创建一个总价格为0-1000的求租客源的房源</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"60","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"1000","housePriceLow":"0","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+"phone":"13678940846","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_CreatRentCustomer_HighPrice_test_004</t>
+  </si>
+  <si>
+    <t>创建一个总价格为3000-9999的求租客源的房源</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"80","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"9999","housePriceLow":"3000","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+"phone":"13678949840","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
   </si>
 </sst>
 </file>
@@ -996,15 +1003,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1025,15 +1040,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1046,8 +1060,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1060,8 +1075,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1077,14 +1109,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1097,17 +1130,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1115,22 +1146,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1139,22 +1162,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1169,13 +1176,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1200,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1236,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1272,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,55 +1320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,25 +1332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,43 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,17 +1404,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1431,17 +1436,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,192 +1475,198 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2058,16 +2071,16 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -2087,16 +2100,16 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -2116,16 +2129,16 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -2142,49 +2155,49 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:8">
-      <c r="C5" s="17"/>
-      <c r="E5" s="14"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="E5" s="16"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="3:8">
-      <c r="C6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="3:8">
-      <c r="C7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="E7" s="16"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" customHeight="1" spans="3:8">
-      <c r="C8" s="17"/>
-      <c r="E8" s="14"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="E8" s="16"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="3:8">
-      <c r="C9" s="17"/>
-      <c r="E9" s="14"/>
-      <c r="H9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="E9" s="16"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" customHeight="1" spans="3:8">
-      <c r="C10" s="17"/>
-      <c r="E10" s="14"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="E10" s="16"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" customHeight="1" spans="3:8">
-      <c r="C11" s="17"/>
-      <c r="E11" s="14"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="E11" s="16"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="17"/>
-      <c r="E12" s="14"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="E12" s="16"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="17"/>
-      <c r="E13" s="14"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="E13" s="16"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="16" customHeight="1"/>
   </sheetData>
@@ -2256,56 +2269,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>124</v>
+      <c r="E3" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -2382,56 +2395,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>124</v>
+      <c r="E3" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -2508,236 +2521,236 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="5" s="10" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="6" s="10" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A4" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="5" t="s">
+    </row>
+    <row r="7" s="10" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A7" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A5" s="5" t="s">
+      <c r="C7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="I7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="5" t="s">
+    </row>
+    <row r="8" s="10" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A8" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" s="7" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="C8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="C9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" s="7" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>196</v>
+      <c r="I9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2761,8 +2774,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2816,89 +2829,89 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>208</v>
+      <c r="M2" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>208</v>
+      <c r="M3" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2972,25 +2985,25 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>124</v>
+      <c r="E2" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>219</v>
+      <c r="H2" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3001,25 +3014,25 @@
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>124</v>
+      <c r="E3" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>222</v>
+      <c r="H3" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3030,25 +3043,25 @@
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>124</v>
+      <c r="E4" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>225</v>
+      <c r="H4" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -3059,25 +3072,25 @@
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>218</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>228</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -3088,25 +3101,25 @@
     </row>
     <row r="6" ht="148.5" spans="1:13">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>124</v>
+      <c r="E6" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -3117,25 +3130,25 @@
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>124</v>
+      <c r="E7" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -3146,25 +3159,25 @@
     </row>
     <row r="8" ht="148.5" spans="1:13">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>124</v>
+      <c r="E8" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -3175,25 +3188,25 @@
     </row>
     <row r="9" ht="108" spans="1:13">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>218</v>
+        <v>231</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>124</v>
+      <c r="E9" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -3204,25 +3217,25 @@
     </row>
     <row r="10" ht="135" spans="1:13">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>124</v>
+      <c r="E10" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3233,25 +3246,25 @@
     </row>
     <row r="11" ht="108" spans="1:13">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>218</v>
+        <v>238</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>124</v>
+      <c r="E11" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -3262,25 +3275,25 @@
     </row>
     <row r="12" ht="148.5" spans="1:13">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>252</v>
+        <v>241</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>124</v>
+      <c r="E12" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -3366,56 +3379,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>260</v>
+        <v>249</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>124</v>
+      <c r="E3" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3492,56 +3505,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>268</v>
+        <v>257</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>124</v>
+      <c r="E3" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3619,284 +3632,284 @@
       </c>
     </row>
     <row r="2" ht="121.5" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" ht="121.5" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" ht="121.5" spans="1:15">
+      <c r="A4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" ht="121.5" spans="1:15">
+      <c r="A5" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="C5" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" ht="121.5" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" ht="121.5" spans="1:15">
+      <c r="A6" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" ht="121.5" spans="1:15">
+      <c r="A7" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" ht="121.5" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" ht="121.5" spans="1:15">
+      <c r="A8" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" ht="121.5" spans="1:15">
-      <c r="A5" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" ht="121.5" spans="1:15">
+      <c r="A9" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" ht="121.5" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C9" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" ht="121.5" spans="1:15">
-      <c r="A7" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" ht="121.5" spans="1:15">
-      <c r="A8" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" ht="121.5" spans="1:15">
-      <c r="A9" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3908,6 +3921,192 @@
     <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
     <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
     <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/insertIntoDealInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3979,19 +4178,19 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I2" t="s">
@@ -4008,25 +4207,25 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4037,19 +4236,19 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
@@ -4066,19 +4265,19 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>47</v>
       </c>
       <c r="I5" t="s">
@@ -4165,19 +4364,19 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="I2" t="s">
@@ -4194,25 +4393,25 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4223,19 +4422,19 @@
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="s">
@@ -4252,19 +4451,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -4291,8 +4490,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4351,19 +4550,19 @@
       <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>63</v>
       </c>
       <c r="I2" t="s">
@@ -4380,19 +4579,19 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I3" t="s">
@@ -4402,190 +4601,74 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="10" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="10" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="6" ht="81" customHeight="1"/>
+    <row r="7" ht="81" customHeight="1"/>
+    <row r="8" ht="81" customHeight="1"/>
+    <row r="9" ht="81" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer" tooltip="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer" tooltip="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer" tooltip="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
     <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer" tooltip="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
-    <hyperlink ref="E6" r:id="rId2" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
-    <hyperlink ref="E7" r:id="rId2" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
-    <hyperlink ref="E8" r:id="rId2" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
-    <hyperlink ref="E9" r:id="rId2" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4598,7 +4681,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4652,60 +4735,60 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>88</v>
+      <c r="E2" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>88</v>
+      <c r="E3" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4724,7 +4807,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4778,60 +4861,60 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>88</v>
+      <c r="E2" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="135" spans="1:13">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>88</v>
+      <c r="E3" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4849,8 +4932,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4902,62 +4985,62 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="121.5" spans="1:13">
+    <row r="2" ht="135" spans="1:13">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4976,7 +5059,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -5030,60 +5113,60 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" ht="121.5" spans="1:13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" ht="135" spans="1:13">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>90</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +5185,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5156,25 +5239,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>121</v>
+      <c r="H2" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5185,25 +5268,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>124</v>
+      <c r="E3" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>125</v>
+      <c r="H3" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -5214,25 +5297,25 @@
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>124</v>
+      <c r="E4" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>128</v>
+      <c r="H4" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5243,25 +5326,25 @@
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="9" t="s">
         <v>120</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>124</v>
+      <c r="E5" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -5272,25 +5355,25 @@
     </row>
     <row r="6" ht="69" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>124</v>
+      <c r="E6" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -5301,25 +5384,25 @@
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>124</v>
+      <c r="E7" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -5330,25 +5413,25 @@
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>124</v>
+      <c r="E8" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -5359,25 +5442,25 @@
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>124</v>
+      <c r="E9" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -5388,25 +5471,25 @@
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:13">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>124</v>
+      <c r="E10" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -5417,25 +5500,25 @@
     </row>
     <row r="11" ht="69" customHeight="1" spans="1:13">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>120</v>
+        <v>142</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>124</v>
+      <c r="E11" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -5446,25 +5529,25 @@
     </row>
     <row r="12" ht="69" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>124</v>
+      <c r="E12" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="16" activeTab="17"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>求购客源中，总面积按照升序排序</t>
   </si>
   <si>
-    <t>{"houseAreaHigh":60.0,"buildName":"万科金色海蓉"}</t>
+    <t>{"houseAreaHigh":60.0,"buildName":"大学路 米兰风度 锦绣路"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_PriceAsc_test-001</t>
@@ -1003,9 +1003,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1046,6 +1046,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1054,7 +1100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1069,7 +1115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1083,33 +1129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1130,15 +1151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1147,21 +1162,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1176,19 +1176,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,37 +1284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,19 +1308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,31 +1326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,55 +1338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,17 +1370,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,17 +1421,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,15 +1459,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1452,21 +1467,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1475,149 +1475,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1648,9 +1648,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1671,9 +1668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2071,16 +2065,16 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -2100,16 +2094,16 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -2129,16 +2123,16 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -2155,49 +2149,49 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:8">
-      <c r="C5" s="19"/>
-      <c r="E5" s="16"/>
-      <c r="H5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="3:8">
-      <c r="C6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="H6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="3:8">
-      <c r="C7" s="19"/>
-      <c r="E7" s="16"/>
-      <c r="H7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" customHeight="1" spans="3:8">
-      <c r="C8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="E8" s="15"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" customHeight="1" spans="3:8">
-      <c r="C9" s="19"/>
-      <c r="E9" s="16"/>
-      <c r="H9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="E9" s="15"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" customHeight="1" spans="3:8">
-      <c r="C10" s="19"/>
-      <c r="E10" s="16"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="15"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" customHeight="1" spans="3:8">
-      <c r="C11" s="19"/>
-      <c r="E11" s="16"/>
-      <c r="H11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
-      <c r="C12" s="19"/>
-      <c r="E12" s="16"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="E12" s="15"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="19"/>
-      <c r="E13" s="16"/>
-      <c r="H13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="E13" s="15"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="16" customHeight="1"/>
   </sheetData>
@@ -2282,7 +2276,7 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2305,7 +2299,7 @@
       <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D3" t="s">
@@ -2408,7 +2402,7 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2431,7 +2425,7 @@
       <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D3" t="s">
@@ -2579,7 +2573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="121.5" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="121.5" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>171</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="121.5" spans="1:13">
+    <row r="5" s="1" customFormat="1" ht="121.5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>175</v>
       </c>
@@ -2637,7 +2631,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" ht="121.5" spans="1:13">
+    <row r="6" s="1" customFormat="1" ht="121.5" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>179</v>
       </c>
@@ -2666,7 +2660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" ht="121.5" spans="1:13">
+    <row r="7" s="1" customFormat="1" ht="121.5" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>183</v>
       </c>
@@ -2695,7 +2689,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" ht="121.5" spans="1:13">
+    <row r="8" s="1" customFormat="1" ht="121.5" spans="1:13">
       <c r="A8" s="8" t="s">
         <v>187</v>
       </c>
@@ -2724,7 +2718,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" ht="121.5" spans="1:13">
+    <row r="9" s="1" customFormat="1" ht="121.5" spans="1:13">
       <c r="A9" s="8" t="s">
         <v>190</v>
       </c>
@@ -2840,7 +2834,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>196</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -2869,7 +2863,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>196</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -2898,7 +2892,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -2990,19 +2984,19 @@
       <c r="B2" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="1" t="s">
         <v>209</v>
       </c>
       <c r="I2" t="s">
@@ -3019,19 +3013,19 @@
       <c r="B3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="1" t="s">
         <v>212</v>
       </c>
       <c r="I3" t="s">
@@ -3048,19 +3042,19 @@
       <c r="B4" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="1" t="s">
         <v>215</v>
       </c>
       <c r="I4" t="s">
@@ -3077,13 +3071,13 @@
       <c r="B5" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G5" t="s">
@@ -3106,13 +3100,13 @@
       <c r="B6" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>221</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G6" t="s">
@@ -3135,13 +3129,13 @@
       <c r="B7" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G7" t="s">
@@ -3164,13 +3158,13 @@
       <c r="B8" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>228</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G8" t="s">
@@ -3193,13 +3187,13 @@
       <c r="B9" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G9" t="s">
@@ -3222,13 +3216,13 @@
       <c r="B10" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>235</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G10" t="s">
@@ -3251,13 +3245,13 @@
       <c r="B11" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G11" t="s">
@@ -3280,13 +3274,13 @@
       <c r="B12" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G12" t="s">
@@ -3392,7 +3386,7 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3415,7 +3409,7 @@
       <c r="B3" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>250</v>
       </c>
       <c r="D3" t="s">
@@ -3518,7 +3512,7 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3541,7 +3535,7 @@
       <c r="B3" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>258</v>
       </c>
       <c r="D3" t="s">
@@ -3717,7 +3711,7 @@
       <c r="E4" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
@@ -3727,14 +3721,14 @@
       <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" ht="121.5" spans="1:15">
       <c r="A5" s="8" t="s">
@@ -3752,7 +3746,7 @@
       <c r="E5" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="8" t="s">
         <v>35</v>
       </c>
@@ -3762,14 +3756,14 @@
       <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" ht="121.5" spans="1:15">
       <c r="A6" s="8" t="s">
@@ -3787,7 +3781,7 @@
       <c r="E6" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
@@ -3797,14 +3791,14 @@
       <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" ht="121.5" spans="1:15">
       <c r="A7" s="8" t="s">
@@ -3822,7 +3816,7 @@
       <c r="E7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="8" t="s">
         <v>35</v>
       </c>
@@ -3832,14 +3826,14 @@
       <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" ht="121.5" spans="1:15">
       <c r="A8" s="8" t="s">
@@ -3857,7 +3851,7 @@
       <c r="E8" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="8" t="s">
         <v>35</v>
       </c>
@@ -3867,14 +3861,14 @@
       <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" ht="121.5" spans="1:15">
       <c r="A9" s="8" t="s">
@@ -3892,7 +3886,7 @@
       <c r="E9" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3902,14 +3896,14 @@
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3932,7 +3926,7 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -4178,19 +4172,19 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="I2" t="s">
@@ -4207,25 +4201,25 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4236,19 +4230,19 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
@@ -4265,19 +4259,19 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I5" t="s">
@@ -4364,19 +4358,19 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>51</v>
       </c>
       <c r="I2" t="s">
@@ -4393,25 +4387,25 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4422,19 +4416,19 @@
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="s">
@@ -4451,19 +4445,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -4490,8 +4484,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4550,19 +4544,19 @@
       <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>63</v>
       </c>
       <c r="I2" t="s">
@@ -4579,19 +4573,19 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I3" t="s">
@@ -4601,61 +4595,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="1" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="1" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4740,13 +4734,13 @@
       <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G2" t="s">
@@ -4769,13 +4763,13 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G3" t="s">
@@ -4866,13 +4860,13 @@
       <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G2" t="s">
@@ -4895,13 +4889,13 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G3" t="s">
@@ -4933,7 +4927,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4992,13 +4986,13 @@
       <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -5021,13 +5015,13 @@
       <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -5058,8 +5052,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -5118,13 +5112,13 @@
       <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -5147,13 +5141,13 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -5244,19 +5238,19 @@
       <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I2" t="s">
@@ -5273,19 +5267,19 @@
       <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="I3" t="s">
@@ -5302,19 +5296,19 @@
       <c r="B4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I4" t="s">
@@ -5331,13 +5325,13 @@
       <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G5" t="s">
@@ -5360,13 +5354,13 @@
       <c r="B6" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G6" t="s">
@@ -5389,13 +5383,13 @@
       <c r="B7" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G7" t="s">
@@ -5418,13 +5412,13 @@
       <c r="B8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G8" t="s">
@@ -5447,13 +5441,13 @@
       <c r="B9" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G9" t="s">
@@ -5476,13 +5470,13 @@
       <c r="B10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>139</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G10" t="s">
@@ -5505,13 +5499,13 @@
       <c r="B11" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G11" t="s">
@@ -5534,13 +5528,13 @@
       <c r="B12" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G12" t="s">

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="客源管理-求租-登记" sheetId="4" r:id="rId3"/>
     <sheet name="客源管理-求购排序-登记" sheetId="5" r:id="rId4"/>
     <sheet name="客源管理-求租-总面积排序" sheetId="6" r:id="rId5"/>
-    <sheet name="客源管理-求租-总价格排序" sheetId="7" r:id="rId6"/>
+    <sheet name="客源管理-求租-租金排序" sheetId="7" r:id="rId6"/>
     <sheet name="客源管理-求购-总面积排序" sheetId="8" r:id="rId7"/>
     <sheet name="客源管理-求购-总价格排序" sheetId="9" r:id="rId8"/>
     <sheet name="客源管理-求购-创建跟进日志" sheetId="10" r:id="rId9"/>
@@ -25,13 +25,17 @@
     <sheet name="客源管理-求租-创建暂缓跟进" sheetId="17" r:id="rId16"/>
     <sheet name="客源管理-求租-新增合同" sheetId="18" r:id="rId17"/>
     <sheet name="客源管理-求租排序-登记" sheetId="19" r:id="rId18"/>
+    <sheet name="客源管理-求购-面积查询" sheetId="20" r:id="rId19"/>
+    <sheet name="客源管理-求租-面积查询" sheetId="21" r:id="rId20"/>
+    <sheet name="客源管理-求购-总价格查询" sheetId="22" r:id="rId21"/>
+    <sheet name="客源管理-求租-租金查询" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="465">
   <si>
     <t>id</t>
   </si>
@@ -281,7 +285,7 @@
     <t>http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList</t>
   </si>
   <si>
-    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_HIGH DESC"}</t>
+    <t>{"bound":"0","rentCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_HIGH DESC"}</t>
   </si>
   <si>
     <t>{"houseAreaHigh":9999.0,"buildName":"碧桂园"}</t>
@@ -297,7 +301,7 @@
 2.求购客源中存在面积最小的，如面积存在0-60</t>
   </si>
   <si>
-    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_LOW ASC"}</t>
+    <t>{"bound":"0","rentCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_LOW ASC"}</t>
   </si>
   <si>
     <t>{"houseAreaHigh":60.0,"buildName":"保利中心LOFT 亚太广场"}</t>
@@ -313,7 +317,7 @@
 2.求购客源中存在总价格最小的，如总价格为0-1000</t>
   </si>
   <si>
-    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW ASC"}</t>
+    <t>{"bound":"0","rentCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW ASC"}</t>
   </si>
   <si>
     <t>{"housePriceHigh":1000.0,"buildName":"保利中心LOFT 亚太广场"}</t>
@@ -322,17 +326,17 @@
     <t>CustomerManage_getRentCustomer_PriceDesc_test-002</t>
   </si>
   <si>
-    <t>求购客源中，总价格按照降序排序</t>
+    <t>求租客源中，总价格按照降序排序</t>
   </si>
   <si>
     <t>1.有效的clientkey
-2.求购客源中存在总价格最大的，如总价格为3000-9999</t>
-  </si>
-  <si>
-    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW DESC"}</t>
-  </si>
-  <si>
-    <t>{"housePriceHigh":9999.0,"buildName":"碧桂园"}</t>
+2.求购客源中存在总价格最大的，如总价格为4000-12000</t>
+  </si>
+  <si>
+    <t>{"bound":"0","rentCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW DESC"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":12000.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_AreaDesc_test-001</t>
@@ -345,6 +349,9 @@
 2.求购客源中存在面积最大的，如面积存在900-10000</t>
   </si>
   <si>
+    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_HIGH DESC"}</t>
+  </si>
+  <si>
     <t>{"houseAreaHigh":10000.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
@@ -352,6 +359,9 @@
   </si>
   <si>
     <t>求购客源中，总面积按照升序排序</t>
+  </si>
+  <si>
+    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_LOW ASC"}</t>
   </si>
   <si>
     <t>{"houseAreaHigh":60.0,"buildName":"大学路 米兰风度 锦绣路"}</t>
@@ -367,16 +377,25 @@
 2.求购客源中存在总价格最小的，如总价格为0-80</t>
   </si>
   <si>
-    <t>{"housePriceHigh":80.0,"buildName":"万科金色海蓉"}</t>
+    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW ASC"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":80.0,"buildName":"恒大雅苑"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_PriceDesc_test-002</t>
+  </si>
+  <si>
+    <t>求购客源中，总价格按照降序排序</t>
   </si>
   <si>
     <t>1.有效的clientkey
 2.求购客源中存在总价格最大的，如总价格为500-10000</t>
   </si>
   <si>
+    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW DESC"}</t>
+  </si>
+  <si>
     <t>{"housePriceHigh":10000.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
@@ -390,6 +409,9 @@
 2.clientkey值有效</t>
   </si>
   <si>
+    <t>http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo</t>
+  </si>
+  <si>
     <t>{"caseId":"7873521","caseType":"3","trackContent":"打电话先了解情况","trackType":"11"}</t>
   </si>
   <si>
@@ -397,9 +419,6 @@
   </si>
   <si>
     <t>正确传入参数，创建求购面谈跟进日志成功</t>
-  </si>
-  <si>
-    <t>http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo</t>
   </si>
   <si>
     <t>{"caseId":"7873521","caseType":"3","trackContent":"客户已锁房源","trackType":"2"}</t>
@@ -991,11 +1010,529 @@
     <t>CustomerManage_CreatRentCustomer_HighPrice_test_004</t>
   </si>
   <si>
-    <t>创建一个总价格为3000-9999的求租客源的房源</t>
-  </si>
-  <si>
-    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"80","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"9999","housePriceLow":"3000","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
+    <t>创建一个总价格为4000-12000的求租客源的房源</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园","rentCustLevel":"1","rentCustName":"何","rentCustSource":"1","coreInfoChanged":"1","custLevel":"3","houseAreaHigh":"80","houseAreaLow":"0","houseFloorHigh":"2","houseFloorLow": "1","housePriceHigh":"12000","housePriceLow":"4000","houseRegion":"1","houseRoom":"1","houseRoom1": "1","houseRound":"1","houseUseage":"1","phones":[{"ownerName":"何","ownerSex":"1","ownerType":"0",
 "phone":"13678949840","phoneType":"1","seqNo":"1"}],"plateType":"2","regionName":"武侯区","repeatFlag":"0","sectionName":"川音","showPhone":"1"}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_001</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在0-60平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在60平方米以下的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"60","houseAreaLow":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":60.0,"houseAreaLow":0.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_002</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在60-90平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在60-90平方米的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"90","houseAreaLow":"60","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":90.0,"houseAreaLow":60.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_003</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在90-120平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在90-120平方米的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"120","houseAreaLow":"90","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":120.0,"houseAreaLow":90.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_004</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在120-150平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在120-150平方米的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"150","houseAreaLow":"120","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":150.0,"houseAreaLow":120.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_005</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在150-180平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在150-180平方米的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"180","houseAreaLow":"150","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":180.0,"houseAreaLow":150.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_006</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在180-240平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在180-240平方米的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"240","houseAreaLow":"180","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":240.0,"houseAreaLow":180.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_007</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在240-320平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在240-320平方米的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"320","houseAreaLow":"240","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":320.0,"houseAreaLow":240.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_008</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在320-600平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在320-600平方米的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"600","houseAreaLow":"320","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":600.0,"houseAreaLow":320.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_AreaQuery_009</t>
+  </si>
+  <si>
+    <t>获取求购客源面积在600平方米以上的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在600平方米以上的求购客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"9999","houseAreaLow":"600","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":9999.0,"houseAreaLow":600.0,"code":200}</t>
+  </si>
+  <si>
+    <t>statuserrCode</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_001</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在0-60平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在60平方米以下的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"60","houseAreaLow":"0","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":60.0,"houseAreaLow":0.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_002</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在60-90平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在60-90平方米的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"90","houseAreaLow":"60","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":90.0,"houseAreaLow":60.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_003</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在90-120平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在90-120平方米的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"120","houseAreaLow":"90","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":120.0,"houseAreaLow":90.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_004</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在120-150平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在120-150平方米的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"150","houseAreaLow":"120","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":150.0,"houseAreaLow":120.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_005</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在150-180平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在150-180平方米的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"180","houseAreaLow":"150","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":180.0,"houseAreaLow":150.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_006</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在180-240平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在180-240平方米的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"240","houseAreaLow":"180","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":240.0,"houseAreaLow":180.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_007</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在240-320平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在240-320平方米的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"320","houseAreaLow":"240","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":320.0,"houseAreaLow":240.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_008</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在320-600平方米的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在320-600平方米的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"600","houseAreaLow":"320","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":600.0,"houseAreaLow":320.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_AreaQuery_009</t>
+  </si>
+  <si>
+    <t>获取求租客源面积在600平方米以上的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在面积在600平方米以上的求租客源</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":"1000","houseAreaLow":"600","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":1000.0,"houseAreaLow":600.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>buyCustStatuscode</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_PriceQuery_001</t>
+  </si>
+  <si>
+    <t>获取求购客源总价格在80万以下的房源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在总价格在80万以下的求购客源</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":"60","housePriceLow":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":80.0,"housePriceLow":0.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_PriceQuery_002</t>
+  </si>
+  <si>
+    <t>获取求购客源总价格在80-120万的房源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在总价格在80-120万的求购客源</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":"80","housePriceLow":"120","bound":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":120.0,"housePriceLow":80.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_PriceQuery_003</t>
+  </si>
+  <si>
+    <t>获取求购客源总价格在120-180万的房源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在总价格在120-180万的求购客源</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":"120","housePriceLow":"180","bound":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":180.0,"housePriceLow":120.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_PriceQuery_004</t>
+  </si>
+  <si>
+    <t>获取求购客源总价格在180-240万的房源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在总价格在180-240万的求购客源</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":"180","housePriceLow":"240","bound":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":240.0,"housePriceLow":180.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_PriceQuery_005</t>
+  </si>
+  <si>
+    <t>获取求购客源总价格在240-300万的房源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在总价格在240-300万的求购客源</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":"240","housePriceLow":"300","bound":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":300.0,"housePriceLow":240.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_PriceQuery_006</t>
+  </si>
+  <si>
+    <t>获取求购客源总价格在300-480万的房源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在总价格在300-480万的求购客源</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":"300","housePriceLow":"480","bound":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":480.0,"housePriceLow":300.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getBuyHouse_PriceQuery_007</t>
+  </si>
+  <si>
+    <t>获取求购客源总价格在480万以上的房源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在总价格在480万以上的求购客源</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":"","housePriceLow":"480","bound":"0","bound":"0","pageOffset":"1","pageRows":"50","buyCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":9999.0,"housePriceLow":480.0,"code":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_PriceQuery_001</t>
+  </si>
+  <si>
+    <t>获取求租客源租金在1000元以下的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在租金在1000元以下的求租客源</t>
+  </si>
+  <si>
+    <t>{"housePriceLow":"0","housePriceHigh":"1000","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":1000.0,"housePriceLow":0.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_PriceQuery_002</t>
+  </si>
+  <si>
+    <t>获取求租客源租金在1000-1400元的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在租金在1000-1400元的求租客源</t>
+  </si>
+  <si>
+    <t>{"housePriceLow":"1000","housePriceHigh":"1400","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":1400.0,"housePriceLow":1000.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_PriceQuery_003</t>
+  </si>
+  <si>
+    <t>获取求租客源租金在1400-1800元的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在租金在1400-1800元的求租客源</t>
+  </si>
+  <si>
+    <t>{"housePriceLow":"1400","housePriceHigh":"1800","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":1800.0,"housePriceLow":1400.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_PriceQuery_004</t>
+  </si>
+  <si>
+    <t>获取求租客源租金在1800-2200元的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在租金在1800-2200元的求租客源</t>
+  </si>
+  <si>
+    <t>{"housePriceLow":"1800","housePriceHigh":"2200","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":2200.0,"housePriceLow":1800.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_PriceQuery_005</t>
+  </si>
+  <si>
+    <t>获取求租客源租金在2200-2600元的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在租金在2200-2600元的求租客源</t>
+  </si>
+  <si>
+    <t>{"housePriceLow":"2200","housePriceHigh":"2600","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":2600.0,"housePriceLow":2200.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_PriceQuery_006</t>
+  </si>
+  <si>
+    <t>获取求租客源租金在2600-3000元的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在租金在2600-3000元的求租客源</t>
+  </si>
+  <si>
+    <t>{"housePriceLow":"2600","housePriceHigh":"3000","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":3000.0,"housePriceLow":2600.0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>CustomerManage_getRentHouse_PriceQuery_007</t>
+  </si>
+  <si>
+    <t>获取求租客源租金在3000元以上的客源列表</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在租金在3000元以上的求租客源</t>
+  </si>
+  <si>
+    <t>{"housePriceLow":"3000","bound":"0","pageOffset":"1","pageRows":"50","rentCustStatus":"1","todayGrab":"0"}</t>
+  </si>
+  <si>
+    <t>{"housePriceHigh":3000.0,"housePriceLow":3000.0,"errCode":200}</t>
   </si>
 </sst>
 </file>
@@ -1003,9 +1540,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1046,6 +1583,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1056,7 +1609,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1078,7 +1660,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1092,45 +1681,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1145,23 +1698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1176,7 +1713,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,37 +1779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,61 +1803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,13 +1833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,19 +1851,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,63 +1904,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1457,6 +1937,63 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1475,10 +2012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,16 +2024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1508,117 +2045,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1649,12 +2192,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -2065,7 +2602,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2094,7 +2631,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -2123,7 +2660,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2263,56 +2800,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="H2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>114</v>
+      <c r="E3" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -2389,56 +2926,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="H2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>114</v>
+      <c r="E3" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -2515,236 +3052,236 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="H2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" s="6" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A4" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A6" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A7" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A8" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="121.5" spans="1:13">
+      <c r="A9" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="121.5" spans="1:13">
-      <c r="A9" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="H9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2823,89 +3360,89 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>198</v>
+      <c r="M2" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
         <v>200</v>
       </c>
-      <c r="C3" t="s">
-        <v>195</v>
-      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>198</v>
+      <c r="M3" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>205</v>
+      <c r="M4" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2979,25 +3516,25 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>114</v>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>209</v>
+      <c r="H2" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3008,25 +3545,25 @@
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>114</v>
+      <c r="E3" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>212</v>
+      <c r="H3" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3037,25 +3574,25 @@
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>114</v>
+      <c r="E4" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>215</v>
+      <c r="H4" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -3066,25 +3603,25 @@
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>208</v>
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>114</v>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -3095,25 +3632,25 @@
     </row>
     <row r="6" ht="148.5" spans="1:13">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>114</v>
+      <c r="E6" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -3124,25 +3661,25 @@
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>208</v>
+        <v>229</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>114</v>
+      <c r="E7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -3153,25 +3690,25 @@
     </row>
     <row r="8" ht="148.5" spans="1:13">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>114</v>
+      <c r="E8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -3182,25 +3719,25 @@
     </row>
     <row r="9" ht="108" spans="1:13">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>208</v>
+        <v>236</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>114</v>
+      <c r="E9" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -3211,25 +3748,25 @@
     </row>
     <row r="10" ht="135" spans="1:13">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>114</v>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -3240,25 +3777,25 @@
     </row>
     <row r="11" ht="108" spans="1:13">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>208</v>
+        <v>243</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>114</v>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -3269,25 +3806,25 @@
     </row>
     <row r="12" ht="148.5" spans="1:13">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>114</v>
+      <c r="E12" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -3373,56 +3910,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="H2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>114</v>
+      <c r="E3" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3499,56 +4036,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" ht="69" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="H2" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>114</v>
+      <c r="E3" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -3626,284 +4163,284 @@
       </c>
     </row>
     <row r="2" ht="121.5" spans="1:15">
-      <c r="A2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="H2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" ht="121.5" spans="1:15">
-      <c r="A3" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" ht="121.5" spans="1:15">
+      <c r="A4" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" ht="121.5" spans="1:15">
-      <c r="A4" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="H4" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" ht="121.5" spans="1:15">
-      <c r="A5" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="8" t="s">
+      <c r="A5" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="H5" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" ht="121.5" spans="1:15">
-      <c r="A6" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="8" t="s">
+      <c r="A6" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="H6" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" ht="121.5" spans="1:15">
-      <c r="A7" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="8" t="s">
+      <c r="A7" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="H7" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" ht="121.5" spans="1:15">
-      <c r="A8" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8" t="s">
+      <c r="A8" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="H8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" ht="121.5" spans="1:15">
-      <c r="A9" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8" t="s">
+      <c r="A9" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="H9" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3927,7 +4464,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3979,119 +4516,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="H5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4101,6 +4638,342 @@
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
     <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/createRentCustomer"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:13">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:13">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:13">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:13">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:13">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:13">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" ht="108" spans="1:13">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:13">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="1:13">
+      <c r="A10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E10" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4172,19 +5045,19 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I2" t="s">
@@ -4201,25 +5074,25 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4230,13 +5103,13 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
@@ -4259,13 +5132,13 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
@@ -4287,6 +5160,894 @@
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
     <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:13">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:13">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:13">
+      <c r="A4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:13">
+      <c r="A5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:13">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:13">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" ht="108" spans="1:13">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:13">
+      <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>387</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="1:13">
+      <c r="A10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E10" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="94.5" spans="1:13">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:13">
+      <c r="A3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:13">
+      <c r="A4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:13">
+      <c r="A5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:13">
+      <c r="A6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>418</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:13">
+      <c r="A7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>423</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" ht="108" spans="1:13">
+      <c r="A8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="94.5" spans="1:13">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:13">
+      <c r="A3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:13">
+      <c r="A4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:13">
+      <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:13">
+      <c r="A6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:13">
+      <c r="A7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>458</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5" spans="1:13">
+      <c r="A8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>463</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/rentCust/getRentCustomerList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4358,19 +6119,19 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I2" t="s">
@@ -4387,25 +6148,25 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4416,13 +6177,13 @@
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G4" t="s">
@@ -4445,13 +6206,13 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G5" t="s">
@@ -4544,13 +6305,13 @@
       <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
@@ -4573,13 +6334,13 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
@@ -4595,61 +6356,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4675,7 +6436,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4734,7 +6495,7 @@
       <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D2" t="s">
@@ -4763,7 +6524,7 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
@@ -4800,8 +6561,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4860,7 +6621,7 @@
       <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
@@ -4889,7 +6650,7 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
@@ -4927,7 +6688,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4986,7 +6747,7 @@
       <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D2" t="s">
@@ -4999,23 +6760,23 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
@@ -5028,13 +6789,13 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5052,8 +6813,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -5107,13 +6868,13 @@
     </row>
     <row r="2" ht="121.5" spans="1:13">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -5125,24 +6886,24 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="135" spans="1:13">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -5154,13 +6915,13 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5178,8 +6939,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5233,25 +6994,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>34</v>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>111</v>
+      <c r="H2" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5262,25 +7023,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>114</v>
+      <c r="E3" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>115</v>
+      <c r="H3" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -5291,25 +7052,25 @@
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>118</v>
+      <c r="H4" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5320,25 +7081,25 @@
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>114</v>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -5349,25 +7110,25 @@
     </row>
     <row r="6" ht="69" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>114</v>
+      <c r="E6" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -5378,25 +7139,25 @@
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>110</v>
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>114</v>
+      <c r="E7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -5407,25 +7168,25 @@
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>114</v>
+      <c r="E8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -5436,25 +7197,25 @@
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>114</v>
+      <c r="E9" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -5465,25 +7226,25 @@
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:13">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>114</v>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -5494,25 +7255,25 @@
     </row>
     <row r="11" ht="69" customHeight="1" spans="1:13">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>110</v>
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>114</v>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -5523,25 +7284,25 @@
     </row>
     <row r="12" ht="69" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>114</v>
+      <c r="E12" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -5562,7 +7323,7 @@
     <hyperlink ref="E10" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E11" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
     <hyperlink ref="E12" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
-    <hyperlink ref="E2" r:id="rId2" display="http://hft.myfun7.com/houseWeb/erp/buyCust/createBuyCustomer"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo" tooltip="http://hft.myfun7.com/houseWeb/houseCust/createTrackInfo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -377,7 +377,7 @@
 2.求购客源中存在总价格最小的，如总价格为0-80</t>
   </si>
   <si>
-    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW ASC"}</t>
+    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW ASC","userId":"20174961"}</t>
   </si>
   <si>
     <t>{"housePriceHigh":80.0,"buildName":"恒大雅苑"}</t>
@@ -1540,10 +1540,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1583,6 +1583,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1593,7 +1637,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1609,58 +1691,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1668,37 +1699,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1713,43 +1713,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,73 +1755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,25 +1785,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,13 +1875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,7 +1893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,6 +1904,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1918,21 +1951,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1953,43 +1971,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2004,6 +1995,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2012,10 +2012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,16 +2024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,112 +2045,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5172,7 +5172,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6561,7 +6561,7 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -6813,8 +6813,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="7" activeTab="7"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -364,7 +364,7 @@
     <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_LOW ASC"}</t>
   </si>
   <si>
-    <t>{"houseAreaHigh":60.0,"buildName":"大学路 米兰风度 锦绣路"}</t>
+    <t>{"houseAreaHigh":60.0,"buildName":"欣苑"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_PriceAsc_test-001</t>
@@ -380,7 +380,7 @@
     <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_PRICE_LOW ASC","userId":"20174961"}</t>
   </si>
   <si>
-    <t>{"housePriceHigh":80.0,"buildName":"恒大雅苑"}</t>
+    <t>{"housePriceHigh":80.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_PriceDesc_test-002</t>
@@ -1540,9 +1540,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1583,23 +1583,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1619,6 +1613,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1629,22 +1637,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1668,14 +1660,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1689,16 +1697,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1713,43 +1713,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,7 +1755,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,7 +1833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,13 +1845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,31 +1869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,31 +1881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,19 +1893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,9 +1909,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,21 +1971,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1984,26 +2004,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2012,10 +2012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,16 +2024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,112 +2045,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6687,8 +6687,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -6800,7 +6800,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList" tooltip="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/buyCust/getBuyCustomerList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6813,8 +6813,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="6" activeTab="6"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -1542,8 +1542,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1592,6 +1592,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1599,36 +1615,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1658,17 +1646,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1681,17 +1675,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1699,6 +1692,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1713,7 +1713,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,73 +1773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,54 +1797,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1869,19 +1809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,6 +1834,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,31 +1922,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1955,7 +1946,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,16 +1982,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2012,10 +2012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,16 +2024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,112 +2045,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3305,8 +3305,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -6687,7 +6687,7 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="11" activeTab="12"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -361,10 +361,10 @@
     <t>求购客源中，总面积按照升序排序</t>
   </si>
   <si>
-    <t>{"bound":"0","buyCustStatus":"1","date":"5","todayGrab":"0","orderBy":"HOUSE_AREA_LOW ASC"}</t>
-  </si>
-  <si>
-    <t>{"houseAreaHigh":60.0,"buildName":"欣苑"}</t>
+    <t>{"bound":"0","buyCustStatus":"1","date":"1","todayGrab":"0","orderBy":"HOUSE_AREA_LOW ASC"}</t>
+  </si>
+  <si>
+    <t>{"houseAreaHigh":60.0,"buildName":"碧桂园"}</t>
   </si>
   <si>
     <t>CustomerManage_getBuyCustomer_PriceAsc_test-001</t>
@@ -1585,23 +1585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1616,16 +1600,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1639,8 +1623,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1655,13 +1653,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1669,7 +1660,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1690,15 +1689,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1710,6 +1710,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1725,25 +1731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,6 +1761,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1773,7 +1779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,19 +1791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,7 +1809,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,79 +1881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,35 +1909,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1947,21 +1921,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1982,6 +1941,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1992,15 +2001,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2015,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,16 +2024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,76 +2045,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2123,34 +2135,22 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2999,8 +2999,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3305,7 +3305,7 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4986,7 +4986,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -6245,8 +6245,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6688,7 +6688,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -709,7 +709,7 @@
     <t>{"dealType":""}</t>
   </si>
   <si>
-    <t>{"errCode":300,"errMsg":"dealType不能为空"}</t>
+    <t>{"errCode":300}</t>
   </si>
   <si>
     <t>CustomerManage_CreateRentTrackInfo_qudian_test_001</t>
@@ -1541,8 +1541,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1583,9 +1583,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1601,7 +1637,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1609,14 +1652,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1644,6 +1680,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1652,53 +1696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1713,25 +1713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,13 +1731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,7 +1761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,7 +1779,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,7 +1857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,97 +1881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,17 +1910,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1940,17 +1931,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1981,26 +1990,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2012,10 +2012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,16 +2024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,112 +2045,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2999,8 +2999,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3306,7 +3306,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -3358,7 +3358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
         <v>207</v>
       </c>

--- a/datas/CustomerManage_test_datas.xlsx
+++ b/datas/CustomerManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客源管理-求购-获取求购列表" sheetId="2" r:id="rId1"/>
@@ -604,7 +604,7 @@
 3.存在出售的房源</t>
   </si>
   <si>
-    <t>{"area":"50","buildId":"2051071","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000214","custId":"3027838","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027838","dealHouseId":"7879262","dealSellStyle":"0","dealType":"101","haveLandcard":"0","houseDeptname":"研发中心内测店","housePlate":"2","housePlateType":"2","houseUseage":"1","houseUserId":"20174961","houseUserUid":"20174961","houseUsername":"张小林","houseaddress":"碧桂园8栋8单元8楼8号50㎡精装","landcardNo":"","mangementTax":"1","otherDataAttachment":"","ownerDataAttachment":"","ownerNo":"","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","realTotalprice":"50","salePriceUnit":"0","sellAddress":"无","sellCallPhone":"18380166926","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"何","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1","trackContent":"21213213","useage":"1"}</t>
+    <t>{"area":"50","buildId":"2051071","buildName":"碧桂园","buildRegId":"4","buyCallPhone":"18380166926","buyCustomerCommsion":"10000","buyIdCardBakType":"1","buyIdCardType":"1","buyMortgageType":"0","buyOwnerName":"何","categoryId":"13577","categoryName":"新房合同","codeId":"805","codeType":"1","contractNo":"JC0000214","custDeptId": "904205","custDeptname": "研发中心内测店","custId":"3027838","custPlate":"2","custPlateType":"2","custUserUid":"20174961","custUsername":"张小林","dealBuyStyle":"0","dealCustomerId":"3027838","dealHouseId":"7879262","dealSellStyle":"0","dealType":"101","haveLandcard":"0","houseDeptId": "904205","houseDeptname":"研发中心内测店","housePlate":"2","housePlateType":"2","houseUseage":"1","houseUserId":"20174961","houseUserUid":"20174961","houseUsername":"张小林","houseaddress":"碧桂园8栋8单元8楼8号50㎡精装","mangementTax":"1","ownerStyle":"1","ownerTax":"1","ownerType":"0","paytypeId":"5559","paytypeName":"一次性","realTotalprice":"50","salePriceUnit":"0","sellAddress":"测试合同","sellCallPhone":"18380166926","sellDealMoney":"1000000","sellIdCardBakType":"1","sellIdCardType":"1","sellIshaveLoan":"0","sellOwnerCommsion":"20000","sellOwnerName":"何","signDate":"2020-04-28","signManagerDeptName":"全公司","signUserDeptName":"全公司","signUserId":"20174961","signUserName":"张小林","tax":"1","trackContent":"21213213","useage":"1"}</t>
   </si>
   <si>
     <t>CustomerManage_insertContract_buyContract_test_003</t>
@@ -1540,10 +1540,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1584,36 +1584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1621,38 +1599,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1674,7 +1621,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1682,7 +1643,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1698,7 +1690,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1713,13 +1713,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,43 +1785,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,7 +1815,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,102 +1897,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1907,25 +1907,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1936,6 +1927,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1958,23 +1973,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1990,16 +1990,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2012,10 +2012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,16 +2024,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,112 +2045,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2999,8 +2999,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3071,7 +3071,7 @@
       <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>171</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -4985,8 +4985,8 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
